--- a/예산안.xlsx
+++ b/예산안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYUNHO\OneDrive - inha.edu\4-1\임베디드\Diving-Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{A3F22B4D-51BE-4202-B878-E9D822A7D648}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{BE5C55F9-8EEB-436F-8B2E-E00C3E14A97F}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="13_ncr:1_{A3F22B4D-51BE-4202-B878-E9D822A7D648}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{C5DD27A9-CAF8-41C6-9625-D3A7E45B69E1}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="15600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,9 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FQ-013</t>
-  </si>
-  <si>
     <t>http://www.devicemart.co.kr/goods/view?no=1361183</t>
   </si>
   <si>
@@ -849,6 +846,10 @@
     <t>2019.        .          .
 작성자:                 (인)              (인)
 지도교수:                                    (인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FQ-013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,7 +1541,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1789,7 +1790,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -1801,7 +1802,7 @@
         <v>1000</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1809,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="5">
         <v>10</v>
@@ -1825,7 +1826,7 @@
         <v>400</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1833,10 +1834,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5">
         <v>10</v>
@@ -1849,7 +1850,7 @@
         <v>400</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1857,10 +1858,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -1873,7 +1874,7 @@
         <v>500</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1881,10 +1882,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="D16" s="5">
         <v>6</v>
@@ -1897,7 +1898,7 @@
         <v>3000</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1905,10 +1906,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
@@ -1921,7 +1922,7 @@
         <v>2000</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1929,10 +1930,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
@@ -1945,7 +1946,7 @@
         <v>1800</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1953,10 +1954,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
@@ -1968,7 +1969,7 @@
         <v>300</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1976,10 +1977,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -1991,7 +1992,7 @@
         <v>600</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2018,7 +2019,7 @@
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -2032,7 +2033,7 @@
     </row>
     <row r="24" spans="1:8" ht="80.25" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
